--- a/胎动跟踪.xlsx
+++ b/胎动跟踪.xlsx
@@ -8,15 +8,15 @@
   </bookViews>
   <sheets>
     <sheet name="胎动跟踪" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="胎心监测" sheetId="2" r:id="rId2"/>
+    <sheet name="血糖检测" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -37,11 +37,42 @@
     <t>合计</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>次数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第一次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第二次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第三次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第四次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15X</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="178" formatCode="0.0_);[Red]\(0.0\)"/>
+  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -106,12 +137,26 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="58" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1566,25 +1611,324 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B20"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="4">
+        <v>42888</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+    </row>
+    <row r="4" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+    </row>
+    <row r="5" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+    </row>
+    <row r="6" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+    </row>
+    <row r="7" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+    </row>
+    <row r="8" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+    </row>
+    <row r="9" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+    </row>
+    <row r="10" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+    </row>
+    <row r="11" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+    </row>
+    <row r="12" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+    </row>
+    <row r="13" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+    </row>
+    <row r="14" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+    </row>
+    <row r="15" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+    </row>
+    <row r="16" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+    </row>
+    <row r="17" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
+    </row>
+    <row r="18" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A18" s="3"/>
+      <c r="B18" s="3"/>
+    </row>
+    <row r="19" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A19" s="3"/>
+      <c r="B19" s="3"/>
+    </row>
+    <row r="20" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A20" s="5"/>
+      <c r="B20" s="5"/>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="9" style="10"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A1" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="9">
+        <v>42887</v>
+      </c>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6">
+        <v>5.3</v>
+      </c>
+      <c r="D2" s="6">
+        <v>6.4</v>
+      </c>
+      <c r="E2" s="6">
+        <v>5.8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A3" s="9">
+        <v>42888</v>
+      </c>
+      <c r="B3" s="6">
+        <v>5</v>
+      </c>
+      <c r="C3" s="6">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A4" s="8"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+    </row>
+    <row r="5" spans="1:5" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A5" s="8"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+    </row>
+    <row r="6" spans="1:5" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A6" s="8"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+    </row>
+    <row r="7" spans="1:5" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A7" s="8"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+    </row>
+    <row r="8" spans="1:5" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A8" s="8"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+    </row>
+    <row r="9" spans="1:5" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A9" s="8"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+    </row>
+    <row r="10" spans="1:5" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A10" s="8"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+    </row>
+    <row r="11" spans="1:5" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A11" s="8"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+    </row>
+    <row r="12" spans="1:5" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A12" s="8"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+    </row>
+    <row r="13" spans="1:5" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A13" s="8"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+    </row>
+    <row r="14" spans="1:5" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A14" s="8"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+    </row>
+    <row r="15" spans="1:5" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A15" s="8"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+    </row>
+    <row r="16" spans="1:5" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A16" s="8"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+    </row>
+    <row r="17" spans="1:5" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A17" s="8"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+    </row>
+    <row r="18" spans="1:5" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A18" s="8"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+    </row>
+    <row r="19" spans="1:5" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A19" s="8"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+    </row>
+    <row r="20" spans="1:5" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A20" s="8"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+    </row>
+    <row r="21" spans="1:5" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A21" s="8"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+    </row>
+    <row r="22" spans="1:5" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A22" s="8"/>
+      <c r="B22" s="6"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+    </row>
+    <row r="23" spans="1:5" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A23" s="8"/>
+      <c r="B23" s="6"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+    </row>
+    <row r="24" spans="1:5" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A24" s="8"/>
+      <c r="B24" s="6"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+    </row>
+    <row r="25" spans="1:5" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A25" s="8"/>
+      <c r="B25" s="6"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
